--- a/tut06/output/2001ME53.xlsx
+++ b/tut06/output/2001ME53.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,7 +559,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -646,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -711,7 +713,9 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -732,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -753,7 +757,9 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -862,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -905,7 +911,9 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
